--- a/demo-downloadFile/src/main/resources/static/excelTemplate/testDownload.xlsx
+++ b/demo-downloadFile/src/main/resources/static/excelTemplate/testDownload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,13 +38,20 @@
   <si>
     <t>編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +82,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,36 +189,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +531,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -526,62 +544,72 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
